--- a/Research Presented in the Paper/Adult Income/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_10_20_30_40_perc.xlsx
+++ b/Research Presented in the Paper/Adult Income/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_10_20_30_40_perc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dideu\OneDrive\Documents\DDB\thesis\Thesis_Project\Adult Income\Performance_metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dideu\OneDrive\Documents\DDB\thesis\Thesis_Project\Research Presented in the Paper\Adult Income\Performance_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8A121-E4BC-4D7E-97D9-9F5A0D10F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F49AA60-1DEF-4034-9DBF-4BA3F0BE1871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,49 +47,49 @@
     <t>CF Num</t>
   </si>
   <si>
-    <t xml:space="preserve">LR sample: 10% CF:1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 10% CF:2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 20% CF:1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 20% CF:2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 30% CF:1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 30% CF:2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 38% CF:1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR sample: 38% CF:2  </t>
-  </si>
-  <si>
-    <t>RF default on original data</t>
-  </si>
-  <si>
-    <t>LR default on original data</t>
-  </si>
-  <si>
-    <t>Fitting Data</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1 std</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
-    <t>AUC std</t>
+    <t>X_fit Size</t>
+  </si>
+  <si>
+    <t>F1 (%)</t>
+  </si>
+  <si>
+    <t>F1 (%)_std</t>
+  </si>
+  <si>
+    <t>AUC (%)</t>
+  </si>
+  <si>
+    <t>AUC (%)_std</t>
+  </si>
+  <si>
+    <t>RF_default_mean_of_iterations</t>
+  </si>
+  <si>
+    <t>LR_default_mean_of_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:3166_cf:1_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:3166_cf:2_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:6331_cf:1_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:6331_cf:2_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:9495_cf:1_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:9495_cf:2_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:12000_cf:1_mean_of_5_iterations</t>
+  </si>
+  <si>
+    <t>LR_sample:12000_cf:2_mean_of_5_iterations</t>
   </si>
 </sst>
 </file>
@@ -97,9 +97,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +112,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,30 +144,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +459,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,33 +467,33 @@
     <col min="2" max="2" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -521,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -535,16 +515,16 @@
       <c r="F2">
         <v>31655</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.66701722748823145</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1.29188E-3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.76922306785048278</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>8.3880000000000001E-4</v>
       </c>
     </row>
@@ -553,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -567,16 +547,16 @@
       <c r="F3">
         <v>31655</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.39792531120331948</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.61879905873483221</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -585,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -599,16 +579,16 @@
       <c r="F4">
         <v>3166</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.1519414370834869</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1.631194E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.54076992692058357</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4.6565499999999998E-3</v>
       </c>
     </row>
@@ -617,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -631,16 +611,16 @@
       <c r="F5">
         <v>6332</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.15818565585654021</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>7.7653699999999997E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0.54261762244871736</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>2.3356900000000001E-3</v>
       </c>
     </row>
@@ -649,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -663,16 +643,16 @@
       <c r="F6">
         <v>6331</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.1639239085032369</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>3.1009700000000002E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.54428967892462732</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>9.2155999999999998E-4</v>
       </c>
     </row>
@@ -681,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -695,16 +675,16 @@
       <c r="F7">
         <v>12662</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.15456528039072789</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>5.55646E-3</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.5416205838928283</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1.6424199999999999E-3</v>
       </c>
     </row>
@@ -713,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -727,16 +707,16 @@
       <c r="F8">
         <v>9495</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.16199395975714551</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>8.4568100000000004E-3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>0.54376231626623872</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>2.5352999999999999E-3</v>
       </c>
     </row>
@@ -745,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -759,16 +739,16 @@
       <c r="F9">
         <v>18990</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.16445500538385741</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>4.1824899999999996E-3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.5445733692780873</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1.23657E-3</v>
       </c>
     </row>
@@ -777,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -791,16 +771,16 @@
       <c r="F10">
         <v>12000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.37180188076508258</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>7.4578700000000001E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.60987537946179959</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>2.8567900000000001E-3</v>
       </c>
     </row>
@@ -809,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -823,16 +803,16 @@
       <c r="F11">
         <v>24000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.37223135206837271</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>4.5164999999999997E-3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>0.61003939834421861</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1.83942E-3</v>
       </c>
     </row>
